--- a/biology/Botanique/Institut_Redouté-Peiffer/Institut_Redouté-Peiffer.xlsx
+++ b/biology/Botanique/Institut_Redouté-Peiffer/Institut_Redouté-Peiffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_Redout%C3%A9-Peiffer</t>
+          <t>Institut_Redouté-Peiffer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Redouté-Peiffer est un établissement d'enseignement de type secondaire technique et professionnel dont le siège est dans la commune d'Anderlecht en Région bruxelloise. 
 Ce centre scolaire est un enseignement de la Commission Communautaire Française, dite COCOF, anciennement enseignement provinciale du Brabant. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_Redout%C3%A9-Peiffer</t>
+          <t>Institut_Redouté-Peiffer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut Redouté Peiffer est issu de la fusion en septembre 1996 de l'Institut Pierre-Joseph Redouté et de l'Institut Serge Peiffer.
 L'institut Pierre-Joseph Redouté doit son nom au peintre des Roses, aquarelliste né à 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_Redout%C3%A9-Peiffer</t>
+          <t>Institut_Redouté-Peiffer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Infrastructures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elles comprennent notamment :
 Complexe de serres, rocaille, collections de plantes, arboretum, sites d'application au Bon Air à Anderlecht depuis le 12 octobre 2016 pour l'horticulture, ainsi que des laboratoires pour les sciences.</t>
